--- a/dados/pruden auto.xlsx
+++ b/dados/pruden auto.xlsx
@@ -483,7 +483,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -493,16 +493,16 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
+          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>FONTE 120A STORM</t>
+          <t>FONTE 70A STORM</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>634.4</v>
+        <v>523.63</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
@@ -516,19 +516,19 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:738685732#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=9ae5b122-eee4-4e80-bc56-7d40ee5bfc72</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3699741821-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D893895cb-eabd-453f-ab05-721317c28115</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -538,20 +538,20 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
+          <t>Fonte Automotiva 120a Amperes Jfa Carregador Cor Preto</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>FONTE 90 BOB</t>
+          <t>FONTE 120A STORM</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>445.19</v>
+        <v>634.4</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Acima</t>
+          <t>Igual</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -566,14 +566,14 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:738685732#searchVariation=MLB21562641&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=9ae5b122-eee4-4e80-bc56-7d40ee5bfc72</t>
+          <t>https://www.mercadolivre.com.br/fonte-automotiva-120a-amperes-jfa-carregador-cor-preto/p/MLB21392652?pdp_filters=seller_id:738685732#searchVariation=MLB21392652&amp;position=2&amp;search_layout=stack&amp;type=product&amp;tracking_id=893895cb-eabd-453f-ab05-721317c28115</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -583,20 +583,20 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 70a Bivolt Com Medidor Cca</t>
+          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>FONTE 70A STORM</t>
+          <t>FONTE 120 BOB</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>493.42</v>
+        <v>599.72</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Acima</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -606,19 +606,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>classico</t>
+          <t>premium</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:738685732#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=9ae5b122-eee4-4e80-bc56-7d40ee5bfc72</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4703299642-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D893895cb-eabd-453f-ab05-721317c28115</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -656,14 +656,14 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:738685732#searchVariation=MLB21320712&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=9ae5b122-eee4-4e80-bc56-7d40ee5bfc72</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-60a-bivolt-storm-com-medidor-cca/p/MLB21320712?pdp_filters=seller_id:738685732#searchVariation=MLB21320712&amp;position=1&amp;search_layout=stack&amp;type=product&amp;tracking_id=893895cb-eabd-453f-ab05-721317c28115</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -701,14 +701,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3699746565-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ae5b122-eee4-4e80-bc56-7d40ee5bfc72</t>
+          <t>https://produto.mercadolivre.com.br/MLB-3699746565-fonte-automotiva-120a-amperes-jfa-carregador-cor-preto-_JM#position%3D6%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D893895cb-eabd-453f-ab05-721317c28115</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -718,16 +718,16 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa 120a Bob Slim Bivolt Cor Preto</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>FONTE 120 BOB</t>
+          <t>FONTE 90 BOB</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>599.72</v>
+        <v>492.3</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
@@ -746,14 +746,14 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4703299642-fonte-carregador-jfa-120a-bob-slim-bivolt-cor-preto-_JM#position%3D7%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ae5b122-eee4-4e80-bc56-7d40ee5bfc72</t>
+          <t>https://produto.mercadolivre.com.br/MLB-4703250702-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D893895cb-eabd-453f-ab05-721317c28115</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>523.63</v>
+        <v>493.42</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -786,19 +786,19 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-3699741821-fonte-carregador-jfa-70a-bivolt-com-medidor-cca-_JM#position%3D8%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ae5b122-eee4-4e80-bc56-7d40ee5bfc72</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-70a-bivolt-com-medidor-cca/p/MLB21455208?pdp_filters=seller_id:738685732#searchVariation=MLB21455208&amp;position=5&amp;search_layout=stack&amp;type=product&amp;tracking_id=893895cb-eabd-453f-ab05-721317c28115</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>30/07/2024</t>
+          <t>01/08/2024</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -808,7 +808,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Pre</t>
+          <t>Fonte Carregador Jfa Bob Storm 90a Bivolt Automático Cor Preto</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -817,7 +817,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>492.3</v>
+        <v>445.19</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
@@ -831,12 +831,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>premium</t>
+          <t>classico</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://produto.mercadolivre.com.br/MLB-4703250702-fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-pre-_JM#position%3D9%26search_layout%3Dstack%26type%3Ditem%26tracking_id%3D9ae5b122-eee4-4e80-bc56-7d40ee5bfc72</t>
+          <t>https://www.mercadolivre.com.br/fonte-carregador-jfa-bob-storm-90a-bivolt-automatico-cor-preto/p/MLB21562641?pdp_filters=seller_id:738685732#searchVariation=MLB21562641&amp;position=4&amp;search_layout=stack&amp;type=product&amp;tracking_id=893895cb-eabd-453f-ab05-721317c28115</t>
         </is>
       </c>
     </row>
